--- a/Сапер шкафы с 22.01.xlsx
+++ b/Сапер шкафы с 22.01.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\111-75-75\Desktop\Цены\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="107">
   <si>
     <t>№п\п</t>
   </si>
@@ -151,6 +146,198 @@
   <si>
     <t xml:space="preserve">Отпускная цена
 с  НДС (рублей) </t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price_currency</t>
+  </si>
+  <si>
+    <t>BYR</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>pod_category</t>
+  </si>
+  <si>
+    <t>gabarity</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>priznak</t>
+  </si>
+  <si>
+    <t>ustanovka</t>
+  </si>
+  <si>
+    <t>dostavka</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>kype_razmesch</t>
+  </si>
+  <si>
+    <t>kype_kolichestvo</t>
+  </si>
+  <si>
+    <t>softmebel_mehanizm</t>
+  </si>
+  <si>
+    <t>matracy_razmer</t>
+  </si>
+  <si>
+    <t>matracy_sostav</t>
+  </si>
+  <si>
+    <t>opisanie</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>pohozhye</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>7-30 дней</t>
+  </si>
+  <si>
+    <t>Шкафы</t>
+  </si>
+  <si>
+    <t>1,38х2,21х0,6 м.</t>
+  </si>
+  <si>
+    <t>СаперМебель</t>
+  </si>
+  <si>
+    <t>1,75х2,22х0,6 м.</t>
+  </si>
+  <si>
+    <t>2.20х1.75х0.6 м.</t>
+  </si>
+  <si>
+    <t>1.38х2.21х0.6 м.</t>
+  </si>
+  <si>
+    <t>2.15х2.22х0.6 м.</t>
+  </si>
+  <si>
+    <t>1.80х2.21.06 м.</t>
+  </si>
+  <si>
+    <t>2.21х1.80х0.6 м.</t>
+  </si>
+  <si>
+    <t>2.20х1.60х0.45 м.</t>
+  </si>
+  <si>
+    <t>2.21х1.19х0.6 м.</t>
+  </si>
+  <si>
+    <t>2.20х1.19х0.6 м.</t>
+  </si>
+  <si>
+    <t>1.0х0.9х0.4 м.</t>
+  </si>
+  <si>
+    <t>2.02х1.186х0.415 м.</t>
+  </si>
+  <si>
+    <t>2.221х1.6х0.6 м.</t>
+  </si>
+  <si>
+    <t>2.20х1.60х0.6 м.</t>
+  </si>
+  <si>
+    <t>2.22х1.75х0.6 м.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20х1.75х0.6 м. </t>
+  </si>
+  <si>
+    <t>2.2х2.15х0.6 м.</t>
+  </si>
+  <si>
+    <t>2.2х1.8х0.6 м.</t>
+  </si>
+  <si>
+    <t>1.275х0.692х0.286 м.</t>
+  </si>
+  <si>
+    <t>1.055х0.692х286 м.</t>
+  </si>
+  <si>
+    <t>0.4х0.4х0.4 м.</t>
+  </si>
+  <si>
+    <t>1.3х0.75х0.6 м.</t>
+  </si>
+  <si>
+    <t>1.0х0.75х0.6 м.</t>
+  </si>
+  <si>
+    <t>1.1х0.75+0.5х0.65 м.</t>
+  </si>
+  <si>
+    <t>0.75х0.67х0.4 м.</t>
+  </si>
+  <si>
+    <t>0.75х0.78х0.45 м.</t>
+  </si>
+  <si>
+    <t>0.96х0.8/0.85/0.9х0.5 м.</t>
+  </si>
+  <si>
+    <t>1.2х0.75 м.</t>
+  </si>
+  <si>
+    <t>2,15х2,2х0,6 м.</t>
+  </si>
+  <si>
+    <t>1.0х0.6 м.</t>
+  </si>
+  <si>
+    <t>Тумба</t>
+  </si>
+  <si>
+    <t>Стол</t>
+  </si>
+  <si>
+    <t>Комод</t>
+  </si>
+  <si>
+    <t>ДСП</t>
+  </si>
+  <si>
+    <t>дсп</t>
+  </si>
+  <si>
+    <t>мдф</t>
   </si>
 </sst>
 </file>
@@ -161,7 +348,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,13 +380,50 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -230,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,12 +465,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -308,7 +559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +594,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,26 +818,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1171,24 +1422,1917 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>998</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>"public://"&amp;A2&amp;".jpg"</f>
+        <v>public://998.jpg</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2817500</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>999</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f t="shared" ref="C3:C39" si="0">"public://"&amp;A3&amp;".jpg"</f>
+        <v>public://999.jpg</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3277500</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1000.jpg</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3588000</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1001.jpg</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3277500</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1002.jpg</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3737500</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1003.jpg</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4048000</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1004.jpg</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2587500</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1005.jpg</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2817500</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1006.jpg</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3128000</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1007.jpg</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2817500</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1008.jpg</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3277500</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1009.jpg</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3588000</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1010.jpg</v>
+      </c>
+      <c r="D14" s="10">
+        <v>977500</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1011</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1011.jpg</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1150000</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1012</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1012.jpg</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1759500</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1013</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1013.jpg</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3277500</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1014</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1014.jpg</v>
+      </c>
+      <c r="D18" s="10">
+        <v>3737500</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1015</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1015.jpg</v>
+      </c>
+      <c r="D19" s="10">
+        <v>4048000</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1016</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1016.jpg</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3450000</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>1017</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1017.jpg</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3910000</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1018</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1018.jpg</v>
+      </c>
+      <c r="D22" s="10">
+        <v>4197500</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>1019</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1019.jpg</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4577000</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>1020</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1020.jpg</v>
+      </c>
+      <c r="D24" s="10">
+        <v>3737500</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>1021</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1021.jpg</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4197500</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1022</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1022.jpg</v>
+      </c>
+      <c r="D26" s="10">
+        <v>4519500</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>1023</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1023.jpg</v>
+      </c>
+      <c r="D27" s="10">
+        <v>4887500</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1024.jpg</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1207500</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>1025</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1025.jpg</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1207500</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>1026</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1026.jpg</v>
+      </c>
+      <c r="D30" s="10">
+        <v>494500</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>1027</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1027.jpg</v>
+      </c>
+      <c r="D31" s="10">
+        <v>828000</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1028</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1028.jpg</v>
+      </c>
+      <c r="D32" s="10">
+        <v>621000</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>1029</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1029.jpg</v>
+      </c>
+      <c r="D33" s="10">
+        <v>828000</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>1030</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1030.jpg</v>
+      </c>
+      <c r="D34" s="10">
+        <v>529000</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>1031</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1031.jpg</v>
+      </c>
+      <c r="D35" s="10">
+        <v>632500</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>1032</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1032.jpg</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1667500</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>1033</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1033.jpg</v>
+      </c>
+      <c r="D37" s="3">
+        <v>701500</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>1034</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1034.jpg</v>
+      </c>
+      <c r="D38" s="12">
+        <v>816500</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>1035</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>public://1035.jpg</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1207500</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:H35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>998</v>
+      </c>
+      <c r="B2" s="8">
+        <v>998</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10">
+        <v>1</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>999</v>
+      </c>
+      <c r="B3" s="8">
+        <v>999</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1009</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1011</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1013</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1014</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1015</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1016</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>1017</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>1018</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>1019</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>1020</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1021</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1021</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>1022</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1022</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>1023</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>1025</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>1026</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1026</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>1027</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1027</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>1028</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>1029</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1029</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>1030</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1030</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>1031</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1031</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>1032</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1032</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>1033</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1033</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>1034</v>
+      </c>
+      <c r="B38" s="15">
+        <v>1034</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>1035</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1035</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Сапер шкафы с 22.01.xlsx
+++ b/Сапер шкафы с 22.01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="106">
   <si>
     <t>№п\п</t>
   </si>
@@ -334,10 +334,7 @@
     <t>ДСП</t>
   </si>
   <si>
-    <t>дсп</t>
-  </si>
-  <si>
-    <t>мдф</t>
+    <t>МДФ</t>
   </si>
 </sst>
 </file>
@@ -454,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,16 +485,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -805,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,26 +822,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1380,16 +1384,16 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="23">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="24">
         <v>710000</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="25">
         <f t="shared" si="0"/>
         <v>816500</v>
       </c>
@@ -1424,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1468,7 @@
         <f>"public://"&amp;A2&amp;".jpg"</f>
         <v>public://998.jpg</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="21">
         <v>2817500</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1482,7 +1486,7 @@
         <f t="shared" ref="C3:C39" si="0">"public://"&amp;A3&amp;".jpg"</f>
         <v>public://999.jpg</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="21">
         <v>3277500</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1500,7 +1504,7 @@
         <f t="shared" si="0"/>
         <v>public://1000.jpg</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="21">
         <v>3588000</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1518,7 +1522,7 @@
         <f t="shared" si="0"/>
         <v>public://1001.jpg</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="21">
         <v>3277500</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1536,7 +1540,7 @@
         <f t="shared" si="0"/>
         <v>public://1002.jpg</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="21">
         <v>3737500</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1554,7 +1558,7 @@
         <f t="shared" si="0"/>
         <v>public://1003.jpg</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="21">
         <v>4048000</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1572,7 +1576,7 @@
         <f t="shared" si="0"/>
         <v>public://1004.jpg</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="21">
         <v>2587500</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1590,7 +1594,7 @@
         <f t="shared" si="0"/>
         <v>public://1005.jpg</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="21">
         <v>2817500</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1608,7 +1612,7 @@
         <f t="shared" si="0"/>
         <v>public://1006.jpg</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="21">
         <v>3128000</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1626,7 +1630,7 @@
         <f t="shared" si="0"/>
         <v>public://1007.jpg</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="21">
         <v>2817500</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1644,7 +1648,7 @@
         <f t="shared" si="0"/>
         <v>public://1008.jpg</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="21">
         <v>3277500</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -1662,7 +1666,7 @@
         <f t="shared" si="0"/>
         <v>public://1009.jpg</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="21">
         <v>3588000</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1680,7 +1684,7 @@
         <f t="shared" si="0"/>
         <v>public://1010.jpg</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="21">
         <v>977500</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1698,7 +1702,7 @@
         <f t="shared" si="0"/>
         <v>public://1011.jpg</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="21">
         <v>1150000</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1716,7 +1720,7 @@
         <f t="shared" si="0"/>
         <v>public://1012.jpg</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="21">
         <v>1759500</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1734,7 +1738,7 @@
         <f t="shared" si="0"/>
         <v>public://1013.jpg</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="21">
         <v>3277500</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1752,7 +1756,7 @@
         <f t="shared" si="0"/>
         <v>public://1014.jpg</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="21">
         <v>3737500</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1770,7 +1774,7 @@
         <f t="shared" si="0"/>
         <v>public://1015.jpg</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="21">
         <v>4048000</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1788,7 +1792,7 @@
         <f t="shared" si="0"/>
         <v>public://1016.jpg</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="21">
         <v>3450000</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1806,7 +1810,7 @@
         <f t="shared" si="0"/>
         <v>public://1017.jpg</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="21">
         <v>3910000</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1824,7 +1828,7 @@
         <f t="shared" si="0"/>
         <v>public://1018.jpg</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="21">
         <v>4197500</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1842,7 +1846,7 @@
         <f t="shared" si="0"/>
         <v>public://1019.jpg</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="21">
         <v>4577000</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1860,7 +1864,7 @@
         <f t="shared" si="0"/>
         <v>public://1020.jpg</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="21">
         <v>3737500</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -1878,7 +1882,7 @@
         <f t="shared" si="0"/>
         <v>public://1021.jpg</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="21">
         <v>4197500</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -1896,7 +1900,7 @@
         <f t="shared" si="0"/>
         <v>public://1022.jpg</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="21">
         <v>4519500</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -1914,7 +1918,7 @@
         <f t="shared" si="0"/>
         <v>public://1023.jpg</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="21">
         <v>4887500</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1932,7 +1936,7 @@
         <f t="shared" si="0"/>
         <v>public://1024.jpg</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="21">
         <v>1207500</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -1950,7 +1954,7 @@
         <f t="shared" si="0"/>
         <v>public://1025.jpg</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="21">
         <v>1207500</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -1968,7 +1972,7 @@
         <f t="shared" si="0"/>
         <v>public://1026.jpg</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="21">
         <v>494500</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -1986,7 +1990,7 @@
         <f t="shared" si="0"/>
         <v>public://1027.jpg</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="21">
         <v>828000</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -2004,7 +2008,7 @@
         <f t="shared" si="0"/>
         <v>public://1028.jpg</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="21">
         <v>621000</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -2022,7 +2026,7 @@
         <f t="shared" si="0"/>
         <v>public://1029.jpg</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="21">
         <v>828000</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -2040,7 +2044,7 @@
         <f t="shared" si="0"/>
         <v>public://1030.jpg</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="21">
         <v>529000</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -2058,7 +2062,7 @@
         <f t="shared" si="0"/>
         <v>public://1031.jpg</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="21">
         <v>632500</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -2076,7 +2080,7 @@
         <f t="shared" si="0"/>
         <v>public://1032.jpg</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="21">
         <v>1667500</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -2094,7 +2098,7 @@
         <f t="shared" si="0"/>
         <v>public://1033.jpg</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="21">
         <v>701500</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -2112,7 +2116,7 @@
         <f t="shared" si="0"/>
         <v>public://1034.jpg</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="22">
         <v>816500</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -2130,7 +2134,7 @@
         <f t="shared" si="0"/>
         <v>public://1035.jpg</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="21">
         <v>1207500</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -2139,6 +2143,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2146,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2238,7 @@
       <c r="B2" s="8">
         <v>998</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -2286,8 +2291,8 @@
       <c r="G3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H3" t="s">
-        <v>105</v>
+      <c r="H3" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>68</v>
@@ -2315,8 +2320,8 @@
       <c r="G4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>105</v>
+      <c r="H4" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>68</v>
@@ -2344,8 +2349,8 @@
       <c r="G5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>105</v>
+      <c r="H5" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>68</v>
@@ -2373,8 +2378,8 @@
       <c r="G6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>105</v>
+      <c r="H6" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>68</v>
@@ -2402,8 +2407,8 @@
       <c r="G7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>105</v>
+      <c r="H7" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>68</v>
@@ -2431,8 +2436,8 @@
       <c r="G8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>105</v>
+      <c r="H8" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>68</v>
@@ -2460,8 +2465,8 @@
       <c r="G9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>105</v>
+      <c r="H9" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>68</v>
@@ -2489,8 +2494,8 @@
       <c r="G10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>105</v>
+      <c r="H10" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>68</v>
@@ -2518,8 +2523,8 @@
       <c r="G11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>105</v>
+      <c r="H11" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>68</v>
@@ -2547,8 +2552,8 @@
       <c r="G12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>105</v>
+      <c r="H12" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>68</v>
@@ -2576,8 +2581,8 @@
       <c r="G13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>105</v>
+      <c r="H13" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>68</v>
@@ -2602,8 +2607,8 @@
       <c r="G14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>105</v>
+      <c r="H14" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>68</v>
@@ -2631,8 +2636,8 @@
       <c r="G15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>106</v>
+      <c r="H15" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>68</v>
@@ -2660,8 +2665,8 @@
       <c r="G16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>105</v>
+      <c r="H16" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>68</v>
@@ -2689,8 +2694,8 @@
       <c r="G17" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>105</v>
+      <c r="H17" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>68</v>
@@ -2718,8 +2723,8 @@
       <c r="G18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>105</v>
+      <c r="H18" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>68</v>
@@ -2747,8 +2752,8 @@
       <c r="G19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>105</v>
+      <c r="H19" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>68</v>
@@ -2776,8 +2781,8 @@
       <c r="G20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>105</v>
+      <c r="H20" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>68</v>
@@ -2805,8 +2810,8 @@
       <c r="G21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>105</v>
+      <c r="H21" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>68</v>
@@ -2834,8 +2839,8 @@
       <c r="G22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>105</v>
+      <c r="H22" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>68</v>
@@ -2863,8 +2868,8 @@
       <c r="G23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>105</v>
+      <c r="H23" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>68</v>
@@ -2892,8 +2897,8 @@
       <c r="G24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>105</v>
+      <c r="H24" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>68</v>
@@ -2921,8 +2926,8 @@
       <c r="G25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>105</v>
+      <c r="H25" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>68</v>
@@ -2950,8 +2955,8 @@
       <c r="G26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>105</v>
+      <c r="H26" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>68</v>
@@ -2979,8 +2984,8 @@
       <c r="G27" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>105</v>
+      <c r="H27" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>68</v>
@@ -3008,8 +3013,8 @@
       <c r="G28" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>105</v>
+      <c r="H28" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>68</v>
@@ -3037,8 +3042,8 @@
       <c r="G29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>105</v>
+      <c r="H29" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>68</v>
@@ -3066,8 +3071,8 @@
       <c r="G30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>105</v>
+      <c r="H30" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>68</v>
@@ -3095,8 +3100,8 @@
       <c r="G31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>105</v>
+      <c r="H31" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>68</v>
@@ -3124,8 +3129,8 @@
       <c r="G32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>105</v>
+      <c r="H32" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>68</v>
@@ -3153,8 +3158,8 @@
       <c r="G33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>105</v>
+      <c r="H33" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>68</v>
@@ -3182,8 +3187,8 @@
       <c r="G34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>105</v>
+      <c r="H34" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>68</v>
@@ -3211,8 +3216,8 @@
       <c r="G35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="20" t="s">
-        <v>105</v>
+      <c r="H35" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>68</v>
@@ -3240,8 +3245,8 @@
       <c r="G36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>105</v>
+      <c r="H36" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>68</v>
@@ -3269,8 +3274,8 @@
       <c r="G37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>106</v>
+      <c r="H37" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>68</v>
@@ -3321,8 +3326,8 @@
       <c r="G39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>106</v>
+      <c r="H39" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>68</v>

--- a/Сапер шкафы с 22.01.xlsx
+++ b/Сапер шкафы с 22.01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="107">
   <si>
     <t>№п\п</t>
   </si>
@@ -322,19 +322,22 @@
     <t>1.0х0.6 м.</t>
   </si>
   <si>
-    <t>Тумба</t>
-  </si>
-  <si>
-    <t>Стол</t>
-  </si>
-  <si>
-    <t>Комод</t>
-  </si>
-  <si>
     <t>ДСП</t>
   </si>
   <si>
     <t>МДФ</t>
+  </si>
+  <si>
+    <t>Столы компьютерные</t>
+  </si>
+  <si>
+    <t>Тумбы</t>
+  </si>
+  <si>
+    <t>Столы</t>
+  </si>
+  <si>
+    <t>Комоды</t>
   </si>
 </sst>
 </file>
@@ -489,12 +492,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,6 +499,12 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -809,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:D39"/>
     </sheetView>
   </sheetViews>
@@ -822,26 +825,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1384,16 +1387,16 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="21">
         <v>37</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="22">
         <v>710000</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="23">
         <f t="shared" si="0"/>
         <v>816500</v>
       </c>
@@ -1428,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1468,7 +1471,7 @@
         <f>"public://"&amp;A2&amp;".jpg"</f>
         <v>public://998.jpg</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>2817500</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1486,7 +1489,7 @@
         <f t="shared" ref="C3:C39" si="0">"public://"&amp;A3&amp;".jpg"</f>
         <v>public://999.jpg</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>3277500</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1504,7 +1507,7 @@
         <f t="shared" si="0"/>
         <v>public://1000.jpg</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>3588000</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1522,7 +1525,7 @@
         <f t="shared" si="0"/>
         <v>public://1001.jpg</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>3277500</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1540,7 +1543,7 @@
         <f t="shared" si="0"/>
         <v>public://1002.jpg</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>3737500</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1558,7 +1561,7 @@
         <f t="shared" si="0"/>
         <v>public://1003.jpg</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>4048000</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1576,7 +1579,7 @@
         <f t="shared" si="0"/>
         <v>public://1004.jpg</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>2587500</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1594,7 +1597,7 @@
         <f t="shared" si="0"/>
         <v>public://1005.jpg</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>2817500</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1612,7 +1615,7 @@
         <f t="shared" si="0"/>
         <v>public://1006.jpg</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>3128000</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1630,7 +1633,7 @@
         <f t="shared" si="0"/>
         <v>public://1007.jpg</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>2817500</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1648,7 +1651,7 @@
         <f t="shared" si="0"/>
         <v>public://1008.jpg</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>3277500</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -1666,7 +1669,7 @@
         <f t="shared" si="0"/>
         <v>public://1009.jpg</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>3588000</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1684,7 +1687,7 @@
         <f t="shared" si="0"/>
         <v>public://1010.jpg</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>977500</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1702,7 +1705,7 @@
         <f t="shared" si="0"/>
         <v>public://1011.jpg</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>1150000</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1720,7 +1723,7 @@
         <f t="shared" si="0"/>
         <v>public://1012.jpg</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>1759500</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1738,7 +1741,7 @@
         <f t="shared" si="0"/>
         <v>public://1013.jpg</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>3277500</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1756,7 +1759,7 @@
         <f t="shared" si="0"/>
         <v>public://1014.jpg</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>3737500</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1774,7 +1777,7 @@
         <f t="shared" si="0"/>
         <v>public://1015.jpg</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>4048000</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1792,7 +1795,7 @@
         <f t="shared" si="0"/>
         <v>public://1016.jpg</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>3450000</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1810,7 +1813,7 @@
         <f t="shared" si="0"/>
         <v>public://1017.jpg</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>3910000</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1828,7 +1831,7 @@
         <f t="shared" si="0"/>
         <v>public://1018.jpg</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>4197500</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1846,7 +1849,7 @@
         <f t="shared" si="0"/>
         <v>public://1019.jpg</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <v>4577000</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1864,7 +1867,7 @@
         <f t="shared" si="0"/>
         <v>public://1020.jpg</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <v>3737500</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -1882,7 +1885,7 @@
         <f t="shared" si="0"/>
         <v>public://1021.jpg</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>4197500</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -1900,7 +1903,7 @@
         <f t="shared" si="0"/>
         <v>public://1022.jpg</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>4519500</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -1918,7 +1921,7 @@
         <f t="shared" si="0"/>
         <v>public://1023.jpg</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>4887500</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1936,7 +1939,7 @@
         <f t="shared" si="0"/>
         <v>public://1024.jpg</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <v>1207500</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -1954,7 +1957,7 @@
         <f t="shared" si="0"/>
         <v>public://1025.jpg</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <v>1207500</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -1972,7 +1975,7 @@
         <f t="shared" si="0"/>
         <v>public://1026.jpg</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>494500</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -1990,7 +1993,7 @@
         <f t="shared" si="0"/>
         <v>public://1027.jpg</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="19">
         <v>828000</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -2008,7 +2011,7 @@
         <f t="shared" si="0"/>
         <v>public://1028.jpg</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="19">
         <v>621000</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -2026,7 +2029,7 @@
         <f t="shared" si="0"/>
         <v>public://1029.jpg</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <v>828000</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -2044,7 +2047,7 @@
         <f t="shared" si="0"/>
         <v>public://1030.jpg</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <v>529000</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -2062,7 +2065,7 @@
         <f t="shared" si="0"/>
         <v>public://1031.jpg</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <v>632500</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -2080,7 +2083,7 @@
         <f t="shared" si="0"/>
         <v>public://1032.jpg</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <v>1667500</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -2098,7 +2101,7 @@
         <f t="shared" si="0"/>
         <v>public://1033.jpg</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <v>701500</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -2116,7 +2119,7 @@
         <f t="shared" si="0"/>
         <v>public://1034.jpg</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="20">
         <v>816500</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -2134,7 +2137,7 @@
         <f t="shared" si="0"/>
         <v>public://1035.jpg</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="19">
         <v>1207500</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -2151,13 +2154,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -2252,7 +2256,7 @@
         <v>71</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -2292,7 +2296,7 @@
         <v>71</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>68</v>
@@ -2321,7 +2325,7 @@
         <v>71</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>68</v>
@@ -2350,7 +2354,7 @@
         <v>71</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>68</v>
@@ -2379,7 +2383,7 @@
         <v>71</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>68</v>
@@ -2408,7 +2412,7 @@
         <v>71</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>68</v>
@@ -2437,7 +2441,7 @@
         <v>71</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>68</v>
@@ -2466,7 +2470,7 @@
         <v>71</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>68</v>
@@ -2495,7 +2499,7 @@
         <v>71</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>68</v>
@@ -2524,7 +2528,7 @@
         <v>71</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>68</v>
@@ -2553,7 +2557,7 @@
         <v>71</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>68</v>
@@ -2582,7 +2586,7 @@
         <v>71</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>68</v>
@@ -2608,7 +2612,7 @@
         <v>71</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>68</v>
@@ -2637,7 +2641,7 @@
         <v>71</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>68</v>
@@ -2666,7 +2670,7 @@
         <v>71</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>68</v>
@@ -2695,7 +2699,7 @@
         <v>71</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>68</v>
@@ -2724,7 +2728,7 @@
         <v>71</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>68</v>
@@ -2753,7 +2757,7 @@
         <v>71</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>68</v>
@@ -2782,7 +2786,7 @@
         <v>71</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>68</v>
@@ -2811,7 +2815,7 @@
         <v>71</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>68</v>
@@ -2840,7 +2844,7 @@
         <v>71</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>68</v>
@@ -2869,7 +2873,7 @@
         <v>71</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>68</v>
@@ -2898,7 +2902,7 @@
         <v>71</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>68</v>
@@ -2927,7 +2931,7 @@
         <v>71</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>68</v>
@@ -2956,7 +2960,7 @@
         <v>71</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>68</v>
@@ -2985,7 +2989,7 @@
         <v>71</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>68</v>
@@ -3005,7 +3009,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
         <v>89</v>
@@ -3014,7 +3018,7 @@
         <v>71</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>68</v>
@@ -3034,7 +3038,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
         <v>90</v>
@@ -3043,7 +3047,7 @@
         <v>71</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>68</v>
@@ -3063,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -3072,7 +3076,7 @@
         <v>71</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>68</v>
@@ -3092,7 +3096,7 @@
         <v>33</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
         <v>92</v>
@@ -3101,7 +3105,7 @@
         <v>71</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>68</v>
@@ -3121,7 +3125,7 @@
         <v>34</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
         <v>93</v>
@@ -3130,7 +3134,7 @@
         <v>71</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>68</v>
@@ -3150,7 +3154,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
         <v>94</v>
@@ -3159,7 +3163,7 @@
         <v>71</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>68</v>
@@ -3179,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
         <v>95</v>
@@ -3188,7 +3192,7 @@
         <v>71</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>68</v>
@@ -3208,7 +3212,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
         <v>96</v>
@@ -3217,7 +3221,7 @@
         <v>71</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>68</v>
@@ -3237,7 +3241,7 @@
         <v>38</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
         <v>97</v>
@@ -3246,7 +3250,7 @@
         <v>71</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>68</v>
@@ -3266,7 +3270,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
         <v>100</v>
@@ -3275,7 +3279,7 @@
         <v>71</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>68</v>
@@ -3294,8 +3298,8 @@
       <c r="C38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>102</v>
+      <c r="D38" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>71</v>
@@ -3318,7 +3322,7 @@
         <v>41</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
         <v>98</v>
@@ -3327,7 +3331,7 @@
         <v>71</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>68</v>

--- a/Сапер шкафы с 22.01.xlsx
+++ b/Сапер шкафы с 22.01.xlsx
@@ -223,9 +223,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>7-30 дней</t>
-  </si>
-  <si>
     <t>Шкафы</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>Комоды</t>
+  </si>
+  <si>
+    <t>2-15 дней</t>
   </si>
 </sst>
 </file>
@@ -2155,7 +2155,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,22 +2246,22 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -2287,19 +2287,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S3" s="10">
         <v>1</v>
@@ -2316,19 +2316,19 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S4" s="10">
         <v>1</v>
@@ -2345,19 +2345,19 @@
         <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S5" s="10">
         <v>1</v>
@@ -2374,19 +2374,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S6" s="10">
         <v>1</v>
@@ -2403,19 +2403,19 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S7" s="10">
         <v>1</v>
@@ -2432,19 +2432,19 @@
         <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S8" s="10">
         <v>1</v>
@@ -2461,19 +2461,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S9" s="10">
         <v>1</v>
@@ -2490,19 +2490,19 @@
         <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S10" s="10">
         <v>1</v>
@@ -2519,19 +2519,19 @@
         <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S11" s="10">
         <v>1</v>
@@ -2548,19 +2548,19 @@
         <v>14</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S12" s="10">
         <v>1</v>
@@ -2577,19 +2577,19 @@
         <v>15</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S13" s="10">
         <v>1</v>
@@ -2606,16 +2606,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S14" s="10">
         <v>1</v>
@@ -2632,19 +2632,19 @@
         <v>17</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S15" s="10">
         <v>1</v>
@@ -2661,19 +2661,19 @@
         <v>18</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S16" s="10">
         <v>1</v>
@@ -2690,19 +2690,19 @@
         <v>19</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S17" s="10">
         <v>1</v>
@@ -2719,19 +2719,19 @@
         <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S18" s="10">
         <v>1</v>
@@ -2748,19 +2748,19 @@
         <v>21</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S19" s="10">
         <v>1</v>
@@ -2777,19 +2777,19 @@
         <v>22</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S20" s="10">
         <v>1</v>
@@ -2806,19 +2806,19 @@
         <v>23</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S21" s="10">
         <v>1</v>
@@ -2835,19 +2835,19 @@
         <v>24</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S22" s="10">
         <v>1</v>
@@ -2864,19 +2864,19 @@
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S23" s="10">
         <v>1</v>
@@ -2893,19 +2893,19 @@
         <v>26</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S24" s="10">
         <v>1</v>
@@ -2922,19 +2922,19 @@
         <v>27</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S25" s="10">
         <v>1</v>
@@ -2951,19 +2951,19 @@
         <v>28</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S26" s="10">
         <v>1</v>
@@ -2980,19 +2980,19 @@
         <v>29</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S27" s="10">
         <v>1</v>
@@ -3009,19 +3009,19 @@
         <v>30</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S28" s="10">
         <v>1</v>
@@ -3038,19 +3038,19 @@
         <v>31</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S29" s="10">
         <v>1</v>
@@ -3067,19 +3067,19 @@
         <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S30" s="10">
         <v>1</v>
@@ -3096,19 +3096,19 @@
         <v>33</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S31" s="10">
         <v>1</v>
@@ -3125,19 +3125,19 @@
         <v>34</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S32" s="10">
         <v>1</v>
@@ -3154,19 +3154,19 @@
         <v>35</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S33" s="10">
         <v>1</v>
@@ -3183,19 +3183,19 @@
         <v>36</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S34" s="10">
         <v>1</v>
@@ -3212,19 +3212,19 @@
         <v>37</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S35" s="10">
         <v>1</v>
@@ -3241,19 +3241,19 @@
         <v>38</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S36" s="10">
         <v>1</v>
@@ -3270,19 +3270,19 @@
         <v>39</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S37" s="10">
         <v>1</v>
@@ -3299,13 +3299,13 @@
         <v>40</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S38" s="12">
         <v>1</v>
@@ -3322,19 +3322,19 @@
         <v>41</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="S39" s="10">
         <v>1</v>

--- a/Сапер шкафы с 22.01.xlsx
+++ b/Сапер шкафы с 22.01.xlsx
@@ -229,9 +229,6 @@
     <t>1,38х2,21х0,6 м.</t>
   </si>
   <si>
-    <t>СаперМебель</t>
-  </si>
-  <si>
     <t>1,75х2,22х0,6 м.</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>2-15 дней</t>
+  </si>
+  <si>
+    <t>Собственное производство</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,15 +2253,15 @@
         <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -2290,16 +2290,16 @@
         <v>68</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S3" s="10">
         <v>1</v>
@@ -2319,16 +2319,16 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S4" s="10">
         <v>1</v>
@@ -2348,16 +2348,16 @@
         <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S5" s="10">
         <v>1</v>
@@ -2377,16 +2377,16 @@
         <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S6" s="10">
         <v>1</v>
@@ -2406,16 +2406,16 @@
         <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S7" s="10">
         <v>1</v>
@@ -2435,16 +2435,16 @@
         <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S8" s="10">
         <v>1</v>
@@ -2464,16 +2464,16 @@
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S9" s="10">
         <v>1</v>
@@ -2493,16 +2493,16 @@
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S10" s="10">
         <v>1</v>
@@ -2522,16 +2522,16 @@
         <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S11" s="10">
         <v>1</v>
@@ -2551,16 +2551,16 @@
         <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S12" s="10">
         <v>1</v>
@@ -2580,16 +2580,16 @@
         <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S13" s="10">
         <v>1</v>
@@ -2609,13 +2609,13 @@
         <v>68</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S14" s="10">
         <v>1</v>
@@ -2635,16 +2635,16 @@
         <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S15" s="10">
         <v>1</v>
@@ -2664,16 +2664,16 @@
         <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S16" s="10">
         <v>1</v>
@@ -2693,16 +2693,16 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S17" s="10">
         <v>1</v>
@@ -2722,16 +2722,16 @@
         <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S18" s="10">
         <v>1</v>
@@ -2751,16 +2751,16 @@
         <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S19" s="10">
         <v>1</v>
@@ -2780,16 +2780,16 @@
         <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S20" s="10">
         <v>1</v>
@@ -2809,16 +2809,16 @@
         <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S21" s="10">
         <v>1</v>
@@ -2838,16 +2838,16 @@
         <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S22" s="10">
         <v>1</v>
@@ -2867,16 +2867,16 @@
         <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S23" s="10">
         <v>1</v>
@@ -2896,16 +2896,16 @@
         <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S24" s="10">
         <v>1</v>
@@ -2925,16 +2925,16 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S25" s="10">
         <v>1</v>
@@ -2954,16 +2954,16 @@
         <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S26" s="10">
         <v>1</v>
@@ -2983,16 +2983,16 @@
         <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S27" s="10">
         <v>1</v>
@@ -3009,19 +3009,19 @@
         <v>30</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S28" s="10">
         <v>1</v>
@@ -3038,19 +3038,19 @@
         <v>31</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S29" s="10">
         <v>1</v>
@@ -3067,19 +3067,19 @@
         <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S30" s="10">
         <v>1</v>
@@ -3096,19 +3096,19 @@
         <v>33</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S31" s="10">
         <v>1</v>
@@ -3125,19 +3125,19 @@
         <v>34</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S32" s="10">
         <v>1</v>
@@ -3154,19 +3154,19 @@
         <v>35</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S33" s="10">
         <v>1</v>
@@ -3183,19 +3183,19 @@
         <v>36</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S34" s="10">
         <v>1</v>
@@ -3212,19 +3212,19 @@
         <v>37</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S35" s="10">
         <v>1</v>
@@ -3241,19 +3241,19 @@
         <v>38</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S36" s="10">
         <v>1</v>
@@ -3270,19 +3270,19 @@
         <v>39</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S37" s="10">
         <v>1</v>
@@ -3299,13 +3299,13 @@
         <v>40</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>70</v>
+        <v>103</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S38" s="12">
         <v>1</v>
@@ -3322,19 +3322,19 @@
         <v>41</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S39" s="10">
         <v>1</v>
